--- a/02_MasterWifoMannheim/99_Backup/Course117.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course117.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD32051265F592811594128F44CFDFF99" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0599225E-642D-4250-AEEC-2328D505BC7A}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 654 Corporate Restructuring</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This course exposes students to a broad range of strategic and financial restructuring techniques (e.g., equity carveouts, spin-offs, leveraged buyouts) that can be applied to improve business performance. We will engage in an analysis of the rationale underlying and their effects on the welfare of managers, stockholders and other corporate stakeholders. Current business cases and guest speakers representing the different parties involved in corporate restructuring (e.g., investment bankers, consultants, business unit managers, employees) will help illustrate how various corporate restructuring approaches may be applied in business practice to increase firm value.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will acquire and demonstrate expert knowledge in the specific subject area of corporate restructuring. Students will be able to apply and critically reflect upon contemporary theories, models and tools utilized in restructuring research and practice. When analyzing business cases, students will be able to identify key issues, derive appropriate solutions, and have a good understanding of their impact on restructuring success. Students will be able to design and deliver professional and effective oral presentations of their business case analyses.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration(no max. number of participants – although a registration is mandatory!)</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Website of the chair / “Student Portal”</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 8 Exercise class 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam and presentations in exercise classes; attendance required</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Matthias Brauer</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
-  </si>
-  <si>
-    <t>Not Taken</t>
-  </si>
-  <si>
-    <t>MAN 656</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,145 +420,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 654 Corporate Restructuring</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This course exposes students to a broad range of strategic and financial restructuring techniques (e.g., equity carveouts, spin-offs, leveraged buyouts) that can be applied to improve business performance. We will engage in an analysis of the rationale underlying and their effects on the welfare of managers, stockholders and other corporate stakeholders. Current business cases and guest speakers representing the different parties involved in corporate restructuring (e.g., investment bankers, consultants, business unit managers, employees) will help illustrate how various corporate restructuring approaches may be applied in business practice to increase firm value.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will acquire and demonstrate expert knowledge in the specific subject area of corporate restructuring. Students will be able to apply and critically reflect upon contemporary theories, models and tools utilized in restructuring research and practice. When analyzing business cases, students will be able to identify key issues, derive appropriate solutions, and have a good understanding of their impact on restructuring success. Students will be able to design and deliver professional and effective oral presentations of their business case analyses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Not Taken</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MAN 656</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registration(no max. number of participants – although a registration is mandatory!)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Website of the chair / “Student Portal”</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 8 Exercise class 2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Written exam and presentations in exercise classes; attendance required</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Matthias Brauer</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
+        </is>
       </c>
     </row>
   </sheetData>
